--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H2">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I2">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J2">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N2">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O2">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P2">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q2">
-        <v>417.6639760575468</v>
+        <v>0.598333800532</v>
       </c>
       <c r="R2">
-        <v>417.6639760575468</v>
+        <v>2.393335202128</v>
       </c>
       <c r="S2">
-        <v>0.4131428416413331</v>
+        <v>0.0004988940340994927</v>
       </c>
       <c r="T2">
-        <v>0.4131428416413331</v>
+        <v>0.0002824556984732618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H3">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I3">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J3">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N3">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O3">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P3">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q3">
-        <v>4.563548280466045</v>
+        <v>455.3190021827281</v>
       </c>
       <c r="R3">
-        <v>4.563548280466045</v>
+        <v>2731.914013096368</v>
       </c>
       <c r="S3">
-        <v>0.004514148723947852</v>
+        <v>0.3796475037832134</v>
       </c>
       <c r="T3">
-        <v>0.004514148723947852</v>
+        <v>0.3224139602559347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H4">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I4">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J4">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.550574195528632</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N4">
-        <v>0.550574195528632</v>
+        <v>0.131107</v>
       </c>
       <c r="O4">
-        <v>0.05000075015345577</v>
+        <v>0.003401596698442785</v>
       </c>
       <c r="P4">
-        <v>0.05000075015345577</v>
+        <v>0.003531215762031497</v>
       </c>
       <c r="Q4">
-        <v>22.22285223461742</v>
+        <v>1.769845557917334</v>
       </c>
       <c r="R4">
-        <v>22.22285223461742</v>
+        <v>10.619073347504</v>
       </c>
       <c r="S4">
-        <v>0.02198229401599213</v>
+        <v>0.001475707020625226</v>
       </c>
       <c r="T4">
-        <v>0.02198229401599213</v>
+        <v>0.001253237647965547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.99620921502984</v>
+        <v>40.497736</v>
       </c>
       <c r="H5">
-        <v>5.99620921502984</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I5">
-        <v>0.06531144975297699</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J5">
-        <v>0.06531144975297699</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>10.3476819803069</v>
+        <v>0.03203666666666666</v>
       </c>
       <c r="N5">
-        <v>10.3476819803069</v>
+        <v>0.09611</v>
       </c>
       <c r="O5">
-        <v>0.9397314032634053</v>
+        <v>0.002493592704335665</v>
       </c>
       <c r="P5">
-        <v>0.9397314032634053</v>
+        <v>0.002588611949696409</v>
       </c>
       <c r="Q5">
-        <v>62.04686604451445</v>
+        <v>1.297412468986667</v>
       </c>
       <c r="R5">
-        <v>62.04686604451445</v>
+        <v>7.784474813920001</v>
       </c>
       <c r="S5">
-        <v>0.06137522032553246</v>
+        <v>0.001081789696601177</v>
       </c>
       <c r="T5">
-        <v>0.06137522032553246</v>
+        <v>0.0009187051061039357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.99620921502984</v>
+        <v>40.497736</v>
       </c>
       <c r="H6">
-        <v>5.99620921502984</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I6">
-        <v>0.06531144975297699</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J6">
-        <v>0.06531144975297699</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.113062531161492</v>
+        <v>0.114006</v>
       </c>
       <c r="N6">
-        <v>0.113062531161492</v>
+        <v>0.342018</v>
       </c>
       <c r="O6">
-        <v>0.01026784658313882</v>
+        <v>0.008873723749365056</v>
       </c>
       <c r="P6">
-        <v>0.01026784658313882</v>
+        <v>0.009211860179078832</v>
       </c>
       <c r="Q6">
-        <v>0.6779465912251367</v>
+        <v>4.616984890416001</v>
       </c>
       <c r="R6">
-        <v>0.6779465912251367</v>
+        <v>27.70190934249601</v>
       </c>
       <c r="S6">
-        <v>0.0006706079461859476</v>
+        <v>0.00384966755230612</v>
       </c>
       <c r="T6">
-        <v>0.0006706079461859476</v>
+        <v>0.003269313109764394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.99620921502984</v>
+        <v>40.497736</v>
       </c>
       <c r="H7">
-        <v>5.99620921502984</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I7">
-        <v>0.06531144975297699</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J7">
-        <v>0.06531144975297699</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.550574195528632</v>
+        <v>1.4000015</v>
       </c>
       <c r="N7">
-        <v>0.550574195528632</v>
+        <v>2.800003</v>
       </c>
       <c r="O7">
-        <v>0.05000075015345577</v>
+        <v>0.1089699363164807</v>
       </c>
       <c r="P7">
-        <v>0.05000075015345577</v>
+        <v>0.07541484991141187</v>
       </c>
       <c r="Q7">
-        <v>3.301358064786424</v>
+        <v>56.696891146604</v>
       </c>
       <c r="R7">
-        <v>3.301358064786424</v>
+        <v>226.787564586416</v>
       </c>
       <c r="S7">
-        <v>0.003265621481258584</v>
+        <v>0.04727418160210775</v>
       </c>
       <c r="T7">
-        <v>0.003265621481258584</v>
+        <v>0.02676492615967473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.759709191841114</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H8">
-        <v>0.759709191841114</v>
+        <v>19.394515</v>
       </c>
       <c r="I8">
-        <v>0.00827484614536732</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J8">
-        <v>0.00827484614536732</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N8">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O8">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P8">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q8">
-        <v>7.861229114687813</v>
+        <v>0.09551475395583332</v>
       </c>
       <c r="R8">
-        <v>7.861229114687813</v>
+        <v>0.573088523735</v>
       </c>
       <c r="S8">
-        <v>0.007776132779974812</v>
+        <v>7.964073043287425E-05</v>
       </c>
       <c r="T8">
-        <v>0.007776132779974812</v>
+        <v>6.763453740815477E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.759709191841114</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H9">
-        <v>0.759709191841114</v>
+        <v>19.394515</v>
       </c>
       <c r="I9">
-        <v>0.00827484614536732</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J9">
-        <v>0.00827484614536732</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N9">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O9">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P9">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q9">
-        <v>0.08589464417620785</v>
+        <v>72.684649314865</v>
       </c>
       <c r="R9">
-        <v>0.08589464417620785</v>
+        <v>654.1618438337849</v>
       </c>
       <c r="S9">
-        <v>8.496485071970927E-05</v>
+        <v>0.06060486284003703</v>
       </c>
       <c r="T9">
-        <v>8.496485071970927E-05</v>
+        <v>0.0772026168128649</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.759709191841114</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H10">
-        <v>0.759709191841114</v>
+        <v>19.394515</v>
       </c>
       <c r="I10">
-        <v>0.00827484614536732</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J10">
-        <v>0.00827484614536732</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.550574195528632</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N10">
-        <v>0.550574195528632</v>
+        <v>0.131107</v>
       </c>
       <c r="O10">
-        <v>0.05000075015345577</v>
+        <v>0.003401596698442785</v>
       </c>
       <c r="P10">
-        <v>0.05000075015345577</v>
+        <v>0.003531215762031497</v>
       </c>
       <c r="Q10">
-        <v>0.4182762771336285</v>
+        <v>0.2825285197894444</v>
       </c>
       <c r="R10">
-        <v>0.4182762771336285</v>
+        <v>2.542756678105</v>
       </c>
       <c r="S10">
-        <v>0.0004137485146727979</v>
+        <v>0.0002355738433305774</v>
       </c>
       <c r="T10">
-        <v>0.0004137485146727979</v>
+        <v>0.0003000900638252038</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.533709373801184</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H11">
-        <v>0.533709373801184</v>
+        <v>19.394515</v>
       </c>
       <c r="I11">
-        <v>0.005813228274680102</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J11">
-        <v>0.005813228274680102</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>10.3476819803069</v>
+        <v>0.03203666666666666</v>
       </c>
       <c r="N11">
-        <v>10.3476819803069</v>
+        <v>0.09611</v>
       </c>
       <c r="O11">
-        <v>0.9397314032634053</v>
+        <v>0.002493592704335665</v>
       </c>
       <c r="P11">
-        <v>0.9397314032634053</v>
+        <v>0.002588611949696409</v>
       </c>
       <c r="Q11">
-        <v>5.522654870003391</v>
+        <v>0.2071118707388889</v>
       </c>
       <c r="R11">
-        <v>5.522654870003391</v>
+        <v>1.86400683665</v>
       </c>
       <c r="S11">
-        <v>0.005462873164055636</v>
+        <v>0.0001726910239918676</v>
       </c>
       <c r="T11">
-        <v>0.005462873164055636</v>
+        <v>0.000219985630319055</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.533709373801184</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H12">
-        <v>0.533709373801184</v>
+        <v>19.394515</v>
       </c>
       <c r="I12">
-        <v>0.005813228274680102</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J12">
-        <v>0.005813228274680102</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.113062531161492</v>
+        <v>0.114006</v>
       </c>
       <c r="N12">
-        <v>0.113062531161492</v>
+        <v>0.342018</v>
       </c>
       <c r="O12">
-        <v>0.01026784658313882</v>
+        <v>0.008873723749365056</v>
       </c>
       <c r="P12">
-        <v>0.01026784658313882</v>
+        <v>0.009211860179078832</v>
       </c>
       <c r="Q12">
-        <v>0.06034253270657675</v>
+        <v>0.73703035903</v>
       </c>
       <c r="R12">
-        <v>0.06034253270657675</v>
+        <v>6.63327323127</v>
       </c>
       <c r="S12">
-        <v>5.968933607718007E-05</v>
+        <v>0.0006145399921303776</v>
       </c>
       <c r="T12">
-        <v>5.968933607718007E-05</v>
+        <v>0.0007828430476585428</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.533709373801184</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H13">
-        <v>0.533709373801184</v>
+        <v>19.394515</v>
       </c>
       <c r="I13">
-        <v>0.005813228274680102</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J13">
-        <v>0.005813228274680102</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.550574195528632</v>
+        <v>1.4000015</v>
       </c>
       <c r="N13">
-        <v>0.550574195528632</v>
+        <v>2.800003</v>
       </c>
       <c r="O13">
-        <v>0.05000075015345577</v>
+        <v>0.1089699363164807</v>
       </c>
       <c r="P13">
-        <v>0.05000075015345577</v>
+        <v>0.07541484991141187</v>
       </c>
       <c r="Q13">
-        <v>0.2938466091266768</v>
+        <v>9.050783363924165</v>
       </c>
       <c r="R13">
-        <v>0.2938466091266768</v>
+        <v>54.30470018354499</v>
       </c>
       <c r="S13">
-        <v>0.0002906657745472846</v>
+        <v>0.007546593256429633</v>
       </c>
       <c r="T13">
-        <v>0.0002906657745472846</v>
+        <v>0.00640891088180465</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.0749538326707</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H14">
-        <v>33.0749538326707</v>
+        <v>2.292847</v>
       </c>
       <c r="I14">
-        <v>0.3602564733581859</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J14">
-        <v>0.3602564733581859</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N14">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O14">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P14">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q14">
-        <v>342.2491037738093</v>
+        <v>0.01129188933383333</v>
       </c>
       <c r="R14">
-        <v>342.2491037738093</v>
+        <v>0.067751336003</v>
       </c>
       <c r="S14">
-        <v>0.3385443212436136</v>
+        <v>9.415239816557643E-06</v>
       </c>
       <c r="T14">
-        <v>0.3385443212436136</v>
+        <v>7.995850692459979E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.0749538326707</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H15">
-        <v>33.0749538326707</v>
+        <v>2.292847</v>
       </c>
       <c r="I15">
-        <v>0.3602564733581859</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J15">
-        <v>0.3602564733581859</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N15">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O15">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P15">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q15">
-        <v>3.73953799837124</v>
+        <v>8.592882066277001</v>
       </c>
       <c r="R15">
-        <v>3.73953799837124</v>
+        <v>77.33593859649301</v>
       </c>
       <c r="S15">
-        <v>0.003699058199024491</v>
+        <v>0.007164792620397591</v>
       </c>
       <c r="T15">
-        <v>0.003699058199024491</v>
+        <v>0.009127002575291358</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.0749538326707</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H16">
-        <v>33.0749538326707</v>
+        <v>2.292847</v>
       </c>
       <c r="I16">
-        <v>0.3602564733581859</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J16">
-        <v>0.3602564733581859</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.550574195528632</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N16">
-        <v>0.550574195528632</v>
+        <v>0.131107</v>
       </c>
       <c r="O16">
-        <v>0.05000075015345577</v>
+        <v>0.003401596698442785</v>
       </c>
       <c r="P16">
-        <v>0.05000075015345577</v>
+        <v>0.003531215762031497</v>
       </c>
       <c r="Q16">
-        <v>18.21021609856932</v>
+        <v>0.03340092129211111</v>
       </c>
       <c r="R16">
-        <v>18.21021609856932</v>
+        <v>0.300608291629</v>
       </c>
       <c r="S16">
-        <v>0.01801309391554775</v>
+        <v>2.78498730161071E-05</v>
       </c>
       <c r="T16">
-        <v>0.01801309391554775</v>
+        <v>3.547707187168265E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.0818355071188</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H17">
-        <v>11.0818355071188</v>
+        <v>2.292847</v>
       </c>
       <c r="I17">
-        <v>0.1207047180875166</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J17">
-        <v>0.1207047180875166</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>10.3476819803069</v>
+        <v>0.03203666666666666</v>
       </c>
       <c r="N17">
-        <v>10.3476819803069</v>
+        <v>0.09611</v>
       </c>
       <c r="O17">
-        <v>0.9397314032634053</v>
+        <v>0.002493592704335665</v>
       </c>
       <c r="P17">
-        <v>0.9397314032634053</v>
+        <v>0.002588611949696409</v>
       </c>
       <c r="Q17">
-        <v>114.6713095857384</v>
+        <v>0.02448505835222222</v>
       </c>
       <c r="R17">
-        <v>114.6713095857384</v>
+        <v>0.22036552517</v>
       </c>
       <c r="S17">
-        <v>0.1134300141088957</v>
+        <v>2.041577715589597E-05</v>
       </c>
       <c r="T17">
-        <v>0.1134300141088957</v>
+        <v>2.600701242181897E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,57 +1529,57 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.0818355071188</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H18">
-        <v>11.0818355071188</v>
+        <v>2.292847</v>
       </c>
       <c r="I18">
-        <v>0.1207047180875166</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J18">
-        <v>0.1207047180875166</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.113062531161492</v>
+        <v>0.114006</v>
       </c>
       <c r="N18">
-        <v>0.113062531161492</v>
+        <v>0.342018</v>
       </c>
       <c r="O18">
-        <v>0.01026784658313882</v>
+        <v>0.008873723749365056</v>
       </c>
       <c r="P18">
-        <v>0.01026784658313882</v>
+        <v>0.009211860179078832</v>
       </c>
       <c r="Q18">
-        <v>1.252940372350148</v>
+        <v>0.08713277169400002</v>
       </c>
       <c r="R18">
-        <v>1.252940372350148</v>
+        <v>0.7841949452460001</v>
       </c>
       <c r="S18">
-        <v>0.001239377527183642</v>
+        <v>7.265178723655426E-05</v>
       </c>
       <c r="T18">
-        <v>0.001239377527183642</v>
+        <v>9.254881255317532E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,52 +1591,1168 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.0818355071188</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H19">
-        <v>11.0818355071188</v>
+        <v>2.292847</v>
       </c>
       <c r="I19">
-        <v>0.1207047180875166</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J19">
-        <v>0.1207047180875166</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.550574195528632</v>
+        <v>1.4000015</v>
       </c>
       <c r="N19">
-        <v>0.550574195528632</v>
+        <v>2.800003</v>
       </c>
       <c r="O19">
-        <v>0.05000075015345577</v>
+        <v>0.1089699363164807</v>
       </c>
       <c r="P19">
-        <v>0.05000075015345577</v>
+        <v>0.07541484991141187</v>
       </c>
       <c r="Q19">
-        <v>6.101372669312562</v>
+        <v>1.069996413090167</v>
       </c>
       <c r="R19">
-        <v>6.101372669312562</v>
+        <v>6.419978478541</v>
       </c>
       <c r="S19">
-        <v>0.006035326451437229</v>
+        <v>0.000892168930660288</v>
       </c>
       <c r="T19">
-        <v>0.006035326451437229</v>
+        <v>0.0007576705108951241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.535784</v>
+      </c>
+      <c r="H20">
+        <v>1.607352</v>
+      </c>
+      <c r="I20">
+        <v>0.00573952983012784</v>
+      </c>
+      <c r="J20">
+        <v>0.007043028290087626</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0147745</v>
+      </c>
+      <c r="N20">
+        <v>0.029549</v>
+      </c>
+      <c r="O20">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P20">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q20">
+        <v>0.007915940708</v>
+      </c>
+      <c r="R20">
+        <v>0.047495644248</v>
+      </c>
+      <c r="S20">
+        <v>6.600355169631275E-06</v>
+      </c>
+      <c r="T20">
+        <v>5.605322379655919E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.535784</v>
+      </c>
+      <c r="H21">
+        <v>1.607352</v>
+      </c>
+      <c r="I21">
+        <v>0.00573952983012784</v>
+      </c>
+      <c r="J21">
+        <v>0.007043028290087626</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.243073</v>
+      </c>
+      <c r="N21">
+        <v>33.729219</v>
+      </c>
+      <c r="O21">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P21">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q21">
+        <v>6.023858624232001</v>
+      </c>
+      <c r="R21">
+        <v>54.21472761808801</v>
+      </c>
+      <c r="S21">
+        <v>0.005022726657287342</v>
+      </c>
+      <c r="T21">
+        <v>0.006398292534739437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.535784</v>
+      </c>
+      <c r="H22">
+        <v>1.607352</v>
+      </c>
+      <c r="I22">
+        <v>0.00573952983012784</v>
+      </c>
+      <c r="J22">
+        <v>0.007043028290087626</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.131107</v>
+      </c>
+      <c r="O22">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P22">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q22">
+        <v>0.02341501096266667</v>
+      </c>
+      <c r="R22">
+        <v>0.210735098664</v>
+      </c>
+      <c r="S22">
+        <v>1.952356572077674E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.487045251039117E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.535784</v>
+      </c>
+      <c r="H23">
+        <v>1.607352</v>
+      </c>
+      <c r="I23">
+        <v>0.00573952983012784</v>
+      </c>
+      <c r="J23">
+        <v>0.007043028290087626</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.09611</v>
+      </c>
+      <c r="O23">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P23">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q23">
+        <v>0.01716473341333333</v>
+      </c>
+      <c r="R23">
+        <v>0.15448260072</v>
+      </c>
+      <c r="S23">
+        <v>1.43120497107237E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.82316671937707E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.535784</v>
+      </c>
+      <c r="H24">
+        <v>1.607352</v>
+      </c>
+      <c r="I24">
+        <v>0.00573952983012784</v>
+      </c>
+      <c r="J24">
+        <v>0.007043028290087626</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.114006</v>
+      </c>
+      <c r="N24">
+        <v>0.342018</v>
+      </c>
+      <c r="O24">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P24">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q24">
+        <v>0.06108259070400001</v>
+      </c>
+      <c r="R24">
+        <v>0.5497433163360002</v>
+      </c>
+      <c r="S24">
+        <v>5.09310021637946E-05</v>
+      </c>
+      <c r="T24">
+        <v>6.487939184558388E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.535784</v>
+      </c>
+      <c r="H25">
+        <v>1.607352</v>
+      </c>
+      <c r="I25">
+        <v>0.00573952983012784</v>
+      </c>
+      <c r="J25">
+        <v>0.007043028290087626</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.4000015</v>
+      </c>
+      <c r="N25">
+        <v>2.800003</v>
+      </c>
+      <c r="O25">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P25">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q25">
+        <v>0.750098403676</v>
+      </c>
+      <c r="R25">
+        <v>4.500590422056</v>
+      </c>
+      <c r="S25">
+        <v>0.0006254362000755722</v>
+      </c>
+      <c r="T25">
+        <v>0.0005311489214187862</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.754358</v>
+      </c>
+      <c r="H26">
+        <v>101.263074</v>
+      </c>
+      <c r="I26">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J26">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0147745</v>
+      </c>
+      <c r="N26">
+        <v>0.029549</v>
+      </c>
+      <c r="O26">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P26">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q26">
+        <v>0.4987037622710001</v>
+      </c>
+      <c r="R26">
+        <v>2.992222573626</v>
+      </c>
+      <c r="S26">
+        <v>0.0004158219568387351</v>
+      </c>
+      <c r="T26">
+        <v>0.0003531349542134849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>33.754358</v>
+      </c>
+      <c r="H27">
+        <v>101.263074</v>
+      </c>
+      <c r="I27">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J27">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>11.243073</v>
+      </c>
+      <c r="N27">
+        <v>33.729219</v>
+      </c>
+      <c r="O27">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P27">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q27">
+        <v>379.502711062134</v>
+      </c>
+      <c r="R27">
+        <v>3415.524399559206</v>
+      </c>
+      <c r="S27">
+        <v>0.316431460674862</v>
+      </c>
+      <c r="T27">
+        <v>0.4030920236631225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>33.754358</v>
+      </c>
+      <c r="H28">
+        <v>101.263074</v>
+      </c>
+      <c r="I28">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J28">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.131107</v>
+      </c>
+      <c r="O28">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P28">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q28">
+        <v>1.475144204768667</v>
+      </c>
+      <c r="R28">
+        <v>13.276297842918</v>
+      </c>
+      <c r="S28">
+        <v>0.001229983401474524</v>
+      </c>
+      <c r="T28">
+        <v>0.001566836929915306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>33.754358</v>
+      </c>
+      <c r="H29">
+        <v>101.263074</v>
+      </c>
+      <c r="I29">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J29">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.09611</v>
+      </c>
+      <c r="O29">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P29">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q29">
+        <v>1.081377115793333</v>
+      </c>
+      <c r="R29">
+        <v>9.732394042140001</v>
+      </c>
+      <c r="S29">
+        <v>0.0009016582235556946</v>
+      </c>
+      <c r="T29">
+        <v>0.001148593876254968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>33.754358</v>
+      </c>
+      <c r="H30">
+        <v>101.263074</v>
+      </c>
+      <c r="I30">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J30">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.114006</v>
+      </c>
+      <c r="N30">
+        <v>0.342018</v>
+      </c>
+      <c r="O30">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P30">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q30">
+        <v>3.848199338148001</v>
+      </c>
+      <c r="R30">
+        <v>34.633794043332</v>
+      </c>
+      <c r="S30">
+        <v>0.003208649904318714</v>
+      </c>
+      <c r="T30">
+        <v>0.004087397569128826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>33.754358</v>
+      </c>
+      <c r="H31">
+        <v>101.263074</v>
+      </c>
+      <c r="I31">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J31">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.4000015</v>
+      </c>
+      <c r="N31">
+        <v>2.800003</v>
+      </c>
+      <c r="O31">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P31">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q31">
+        <v>47.256151831537</v>
+      </c>
+      <c r="R31">
+        <v>283.536910989222</v>
+      </c>
+      <c r="S31">
+        <v>0.03940244091557511</v>
+      </c>
+      <c r="T31">
+        <v>0.03346234834351824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>11.332808</v>
+      </c>
+      <c r="H32">
+        <v>22.665616</v>
+      </c>
+      <c r="I32">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J32">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.0147745</v>
+      </c>
+      <c r="N32">
+        <v>0.029549</v>
+      </c>
+      <c r="O32">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P32">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q32">
+        <v>0.167436571796</v>
+      </c>
+      <c r="R32">
+        <v>0.669746287184</v>
+      </c>
+      <c r="S32">
+        <v>0.0001396095401677517</v>
+      </c>
+      <c r="T32">
+        <v>7.904185555714445E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>11.332808</v>
+      </c>
+      <c r="H33">
+        <v>22.665616</v>
+      </c>
+      <c r="I33">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J33">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>11.243073</v>
+      </c>
+      <c r="N33">
+        <v>33.729219</v>
+      </c>
+      <c r="O33">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P33">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q33">
+        <v>127.415587638984</v>
+      </c>
+      <c r="R33">
+        <v>764.493525833904</v>
+      </c>
+      <c r="S33">
+        <v>0.1062398220990534</v>
+      </c>
+      <c r="T33">
+        <v>0.09022369813710422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>11.332808</v>
+      </c>
+      <c r="H34">
+        <v>22.665616</v>
+      </c>
+      <c r="I34">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J34">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.131107</v>
+      </c>
+      <c r="O34">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P34">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q34">
+        <v>0.4952701528186667</v>
+      </c>
+      <c r="R34">
+        <v>2.971620916912</v>
+      </c>
+      <c r="S34">
+        <v>0.0004129589942755744</v>
+      </c>
+      <c r="T34">
+        <v>0.0003507035959433665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>11.332808</v>
+      </c>
+      <c r="H35">
+        <v>22.665616</v>
+      </c>
+      <c r="I35">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J35">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N35">
+        <v>0.09611</v>
+      </c>
+      <c r="O35">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P35">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q35">
+        <v>0.3630653922933333</v>
+      </c>
+      <c r="R35">
+        <v>2.17839235376</v>
+      </c>
+      <c r="S35">
+        <v>0.0003027259333203068</v>
+      </c>
+      <c r="T35">
+        <v>0.0002570886574028615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>11.332808</v>
+      </c>
+      <c r="H36">
+        <v>22.665616</v>
+      </c>
+      <c r="I36">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J36">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.114006</v>
+      </c>
+      <c r="N36">
+        <v>0.342018</v>
+      </c>
+      <c r="O36">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P36">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q36">
+        <v>1.292008108848</v>
+      </c>
+      <c r="R36">
+        <v>7.752048653088001</v>
+      </c>
+      <c r="S36">
+        <v>0.001077283511209496</v>
+      </c>
+      <c r="T36">
+        <v>0.00091487824812831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>11.332808</v>
+      </c>
+      <c r="H37">
+        <v>22.665616</v>
+      </c>
+      <c r="I37">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J37">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.4000015</v>
+      </c>
+      <c r="N37">
+        <v>2.800003</v>
+      </c>
+      <c r="O37">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P37">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q37">
+        <v>15.865948199212</v>
+      </c>
+      <c r="R37">
+        <v>63.463792796848</v>
+      </c>
+      <c r="S37">
+        <v>0.01322911541163238</v>
+      </c>
+      <c r="T37">
+        <v>0.007489845094100346</v>
       </c>
     </row>
   </sheetData>
